--- a/data/trans_media/Q24D_2-Edad-trans_media.xlsx
+++ b/data/trans_media/Q24D_2-Edad-trans_media.xlsx
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,51; 2,61</t>
+          <t>1,52; 2,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 2,35</t>
+          <t>1,77; 2,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -744,12 +744,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 2,72</t>
+          <t>1,82; 2,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 2,95</t>
+          <t>1,84; 2,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -764,12 +764,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,81; 2,5</t>
+          <t>1,79; 2,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,86; 2,44</t>
+          <t>1,89; 2,47</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,95; 3,32</t>
+          <t>1,95; 3,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 2,82</t>
+          <t>2,18; 2,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -884,12 +884,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 1,87</t>
+          <t>1,43; 1,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 2,72</t>
+          <t>2,17; 2,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,79; 2,69</t>
+          <t>1,76; 2,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 2,69</t>
+          <t>2,24; 2,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 3,91</t>
+          <t>2,29; 4,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1024,12 +1024,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,23; 2,81</t>
+          <t>2,23; 2,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,11; 2,71</t>
+          <t>2,12; 2,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1044,12 +1044,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,14; 2,64</t>
+          <t>2,12; 2,64</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 3,39</t>
+          <t>2,31; 3,38</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,6; 4,73</t>
+          <t>2,58; 4,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,57; 3,65</t>
+          <t>2,55; 3,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 3,25</t>
+          <t>2,02; 3,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1184,12 +1184,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,49; 3,97</t>
+          <t>2,48; 3,92</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,47; 3,05</t>
+          <t>2,47; 3,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,45; 3,46</t>
+          <t>2,43; 3,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,52; 3,63</t>
+          <t>2,52; 3,68</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,51; 3,3</t>
+          <t>2,47; 3,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,03</t>
+          <t>2,5; 3,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,03; 2,4</t>
+          <t>2,01; 2,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,35; 2,83</t>
+          <t>2,34; 2,83</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">

--- a/data/trans_media/Q24D_2-Edad-trans_media.xlsx
+++ b/data/trans_media/Q24D_2-Edad-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,68</t>
+          <t>1,52; 2,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 2,34</t>
+          <t>1,79; 2,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 3,01</t>
+          <t>1,96; 3,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 2,71</t>
+          <t>1,82; 2,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,84; 2,95</t>
+          <t>1,84; 2,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,51; 2,16</t>
+          <t>1,52; 2,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,79; 2,49</t>
+          <t>1,81; 2,48</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,89; 2,47</t>
+          <t>1,87; 2,48</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,85; 2,48</t>
+          <t>1,84; 2,48</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,95; 3,42</t>
+          <t>1,94; 3,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 2,83</t>
+          <t>2,21; 2,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,23; 2,87</t>
+          <t>2,23; 2,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,43; 1,88</t>
+          <t>1,42; 1,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 2,73</t>
+          <t>2,2; 2,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,09; 3,01</t>
+          <t>2,08; 3,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,76; 2,68</t>
+          <t>1,76; 2,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 2,68</t>
+          <t>2,26; 2,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 2,73</t>
+          <t>2,24; 2,75</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 2,82</t>
+          <t>1,89; 2,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,29; 4,07</t>
+          <t>2,31; 4,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,34; 3,36</t>
+          <t>2,31; 3,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,23; 2,8</t>
+          <t>2,23; 2,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 3,11</t>
+          <t>2,39; 3,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 2,64</t>
+          <t>2,12; 2,63</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 3,38</t>
+          <t>2,32; 3,41</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 3,15</t>
+          <t>2,42; 3,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,58; 4,84</t>
+          <t>2,62; 5,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,55; 3,63</t>
+          <t>2,55; 3,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,01; 2,66</t>
+          <t>2,02; 2,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 3,28</t>
+          <t>2,03; 3,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,16; 2,79</t>
+          <t>2,17; 2,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 2,91</t>
+          <t>2,13; 2,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,48; 3,92</t>
+          <t>2,52; 3,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,47; 3,09</t>
+          <t>2,44; 3,05</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 2,69</t>
+          <t>2,17; 2,66</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,27; 5,2</t>
+          <t>2,38; 5,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,43; 3,38</t>
+          <t>2,44; 3,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,23; 3,74</t>
+          <t>2,24; 3,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,19</t>
+          <t>1,56; 3,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,14; 5,73</t>
+          <t>2,14; 6,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,82; 2,87</t>
+          <t>1,84; 2,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,34; 4,88</t>
+          <t>2,36; 4,88</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,52; 3,68</t>
+          <t>2,51; 3,74</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,21; 3,22</t>
+          <t>2,18; 3,14</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,0; 4,92</t>
+          <t>2,96; 4,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,08; 3,36</t>
+          <t>2,11; 3,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,17; 3,39</t>
+          <t>2,16; 3,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,6</t>
+          <t>1,0; 2,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,28; 4,67</t>
+          <t>2,28; 4,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,24; 8,99</t>
+          <t>2,28; 8,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,76; 4,6</t>
+          <t>2,69; 4,57</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,32; 3,43</t>
+          <t>2,31; 3,58</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,41; 4,95</t>
+          <t>2,42; 5,2</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,47; 3,23</t>
+          <t>2,49; 3,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,04</t>
+          <t>2,48; 3,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,38; 2,76</t>
+          <t>2,37; 2,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,01; 2,39</t>
+          <t>2,03; 2,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,29; 2,65</t>
+          <t>2,28; 2,63</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,32; 2,8</t>
+          <t>2,3; 2,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,34; 2,83</t>
+          <t>2,35; 2,83</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,44; 2,76</t>
+          <t>2,45; 2,77</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,39; 2,71</t>
+          <t>2,39; 2,68</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
